--- a/StructureDefinition-hc-practitioner.xlsx
+++ b/StructureDefinition-hc-practitioner.xlsx
@@ -390,7 +390,7 @@
     <t>HCAuthIdentifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {https://healthconnect.institute//StructureDefinition/hc-auth-identifier}
+    <t xml:space="preserve">Identifier {https://healthconnect.institute/StructureDefinition/hc-auth-identifier}
 </t>
   </si>
   <si>
